--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:31:22+00:00</t>
+    <t>2024-12-26T15:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:51:21+00:00</t>
+    <t>2024-12-27T09:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T09:52:33+00:00</t>
+    <t>2024-12-27T10:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:08:00+00:00</t>
+    <t>2024-12-27T10:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:41:44+00:00</t>
+    <t>2024-12-31T09:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-31T09:40:44+00:00</t>
+    <t>2025-01-02T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:06:50+00:00</t>
+    <t>2025-01-02T08:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:36:24+00:00</t>
+    <t>2025-01-02T08:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:46:33+00:00</t>
+    <t>2025-01-02T15:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:15:39+00:00</t>
+    <t>2025-01-03T16:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-medication-profile-list.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
